--- a/toilet4me2_V2/res_FB_ratio.xlsx
+++ b/toilet4me2_V2/res_FB_ratio.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-stuff\PCB-projects\toilet4me2_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beia\Documents\GitHub\PCB-projects\toilet4me2_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81312C78-1915-476A-B9B5-328183DEC132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD21968B-7BB1-4A8F-AF56-2ED6FDD26D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FF19229-3C1F-4DFB-B2C1-AF91B513CCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>r1</t>
   </si>
@@ -53,11 +51,44 @@
   <si>
     <t>Vdiff</t>
   </si>
+  <si>
+    <t>full value plot</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>r10</t>
+  </si>
+  <si>
+    <t>r11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,12 +97,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,6 +143,1290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$34:$A$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>13.990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.833593750000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.677187500000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.520781250000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.364374999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.207968750000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.051562500000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.895156250000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.738750000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.58234375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.425937500000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.269531250000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.113125000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.956718750000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.800312500000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.643906250000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.487500000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.331093750000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.174687500000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.018281250000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.861875000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.705468750000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.549062500000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.392656250000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.236250000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.079843750000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.9234375000000021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7670312500000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.6106250000000024</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.4542187500000026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.2978125000000009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1414062500000028</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.8285937500000031</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.6721875000000033</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.5157812499999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.3593750000000018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.2029687500000037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.0465625000000021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.8901562500000031</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.7337500000000023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.5773437500000025</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.4209375000000026</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.2645312500000019</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.1081250000000029</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.9517187500000022</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.7953125000000023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.6389062500000033</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.4825000000000017</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.3260937500000027</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.169687500000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0132812500000021</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.8568750000000032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.7004687500000024</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.5440625000000026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3876562500000045</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.2312500000000046</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.0748437500000012</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9184375000000022</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.7620312500000024</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.6056250000000034</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.4492187500000036</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.2928125000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1364062500000021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6BE-48E8-B016-5CC5739E43C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="544087224"/>
+        <c:axId val="544088504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="544087224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544088504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544088504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544087224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA5E58B-5798-2517-23D5-0BB1AA5F3108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,207 +1726,2058 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B3F7E7-76D3-4D3B-8D40-215B4658B1C1}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:AE97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="3">
+        <v>5600</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="3">
+        <v>5600</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L4">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <f>1.25*(B2+B1)/B2-B4*(B2+B1)/(B2+B3)</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <f>1.25*(B2+B1)/B2-C4*(B2+B1)/(B2+B3)</f>
         <v>2.8285714285714292</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <f>1.25*(B2+B1)/B2-D4*(B2+B1)/(B2+B3)</f>
         <v>7.071428571428573</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <f>1.25+$J$1*(   (1.25-J4)/$J$3 +1.25/$J$2  )</f>
+        <v>13.989999999999998</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:L5" si="0">1.25+$J$1*(   (1.25-K4)/$J$3 +1.25/$J$2  )</f>
+        <v>3.9799999999999986</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>8.0750000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <f>B5-C5</f>
         <v>10.371428571428572</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <f>J5-K5</f>
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="3">
+        <v>182000</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L14">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <f>1.25*(B12+B11)/B12-B14*(B12+B11)/(B12+B13)</f>
-        <v>13.44</v>
-      </c>
-      <c r="C15">
+        <v>13.439999999999998</v>
+      </c>
+      <c r="C15" s="3">
         <f>1.25*(B12+B11)/B12-C14*(B12+B11)/(B12+B13)</f>
-        <v>2.879999999999999</v>
-      </c>
-      <c r="D15">
+        <v>2.8799999999999955</v>
+      </c>
+      <c r="D15" s="3">
         <f>1.25*(B12+B11)/B12-D14*(B12+B11)/(B12+B13)</f>
         <v>7.1999999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f>1.25+$J$11*(   (1.25-J14)/$J$13 +1.25/$J$12  )</f>
+        <v>15.249999999999998</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:L15" si="1">1.25+$J$11*(   (1.25-K14)/$J$13 +1.25/$J$12  )</f>
+        <v>4.2499999999999982</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <f>B15-C15</f>
-        <v>10.56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>10.560000000000002</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <f>J15-K15</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B22">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B23">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>1.75</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <f>1.25*(B22+B21)/B22-B24*(B22+B21)/(B22+B23)</f>
         <v>11.838095238095239</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <f>1.25*(B22+B21)/B22-C24*(B22+B21)/(B22+B23)</f>
         <v>0.10476190476190439</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <f>1.25*(B22+B21)/B22-D24*(B22+B21)/(B22+B23)</f>
         <v>4.9047619047619051</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <f>B25-C25</f>
         <v>11.733333333333334</v>
       </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>7</v>
+      </c>
+      <c r="T30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U30" t="s">
+        <v>9</v>
+      </c>
+      <c r="V30" t="s">
+        <v>10</v>
+      </c>
+      <c r="W30" t="s">
+        <v>11</v>
+      </c>
+      <c r="X30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31">
+        <v>3.3</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <f>2^T31</f>
+        <v>64</v>
+      </c>
+      <c r="V31" s="2">
+        <v>90800</v>
+      </c>
+      <c r="W31" s="2">
+        <v>9100</v>
+      </c>
+      <c r="X31" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3.3</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <f>2^B32</f>
+        <v>64</v>
+      </c>
+      <c r="D32" s="2">
+        <v>91000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S32" t="s">
+        <v>6</v>
+      </c>
+      <c r="U32" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <f>($A$32/3 ) * ( 1+ S33/$C$32 )</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="U33">
+        <f>1.25+$V$31*(  ( 1.25-T33)/$X$31  +1.25/$W$31 )</f>
+        <v>15.084527472527475</v>
+      </c>
+      <c r="W33">
+        <f>U96</f>
+        <v>5.2525899725274741</v>
+      </c>
+      <c r="X33">
+        <f>U33</f>
+        <v>15.084527472527475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <f>($A$32/3 ) * ( 1+ A34/$C$32 )</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="C34">
+        <f>1.25+$D$32*(  ( 1.25-B34)/$F$32  +1.25/$E$32 )</f>
+        <v>13.990000000000002</v>
+      </c>
+      <c r="E34">
+        <f>C97</f>
+        <v>4.1364062500000021</v>
+      </c>
+      <c r="F34">
+        <f>C34</f>
+        <v>13.990000000000002</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" ref="T34:T96" si="2">($A$32/3 ) * ( 1+ S34/$C$32 )</f>
+        <v>1.1171874999999998</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34:U96" si="3">1.25+$V$31*(  ( 1.25-T34)/$X$31  +1.25/$W$31 )</f>
+        <v>14.928464972527475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" ref="B35:B97" si="4">($A$32/3 ) * ( 1+ A35/$C$32 )</f>
+        <v>1.1171874999999998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C97" si="5">1.25+$D$32*(  ( 1.25-B35)/$F$32  +1.25/$E$32 )</f>
+        <v>13.833593750000002</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1343749999999999</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="3"/>
+        <v>14.772402472527475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1343749999999999</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>13.677187500000002</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1515624999999998</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="3"/>
+        <v>14.616339972527474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1515624999999998</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>13.520781250000001</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="2"/>
+        <v>1.16875</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="3"/>
+        <v>14.460277472527473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="4"/>
+        <v>1.16875</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>13.364374999999999</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1859374999999999</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="3"/>
+        <v>14.304214972527474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1859374999999999</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>13.207968750000001</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2031249999999998</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="3"/>
+        <v>14.148152472527475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2031249999999998</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>13.051562500000003</v>
+      </c>
+      <c r="S40">
+        <v>7</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2203124999999999</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="3"/>
+        <v>13.992089972527474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2203124999999999</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>12.895156250000001</v>
+      </c>
+      <c r="S41">
+        <v>8</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2374999999999998</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="3"/>
+        <v>13.836027472527475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2374999999999998</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>12.738750000000003</v>
+      </c>
+      <c r="S42">
+        <v>9</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2546875</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="3"/>
+        <v>13.679964972527472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2546875</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>12.58234375</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2718749999999999</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="3"/>
+        <v>13.523902472527473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2718749999999999</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>12.425937500000002</v>
+      </c>
+      <c r="S44">
+        <v>11</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2890624999999998</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="3"/>
+        <v>13.367839972527475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2890624999999998</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>12.269531250000002</v>
+      </c>
+      <c r="S45">
+        <v>12</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3062499999999999</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="3"/>
+        <v>13.211777472527473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3062499999999999</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>12.113125000000002</v>
+      </c>
+      <c r="S46">
+        <v>13</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3234374999999998</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="3"/>
+        <v>13.055714972527475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3234374999999998</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>11.956718750000002</v>
+      </c>
+      <c r="S47">
+        <v>14</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3406249999999997</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="3"/>
+        <v>12.899652472527475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3406249999999997</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>11.800312500000002</v>
+      </c>
+      <c r="S48">
+        <v>15</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3578124999999999</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="3"/>
+        <v>12.743589972527474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3578124999999999</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>11.643906250000002</v>
+      </c>
+      <c r="S49">
+        <v>16</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3749999999999998</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="3"/>
+        <v>12.587527472527475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3749999999999998</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>11.487500000000002</v>
+      </c>
+      <c r="S50">
+        <v>17</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3921874999999999</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="3"/>
+        <v>12.431464972527474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3921874999999999</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>11.331093750000001</v>
+      </c>
+      <c r="S51">
+        <v>18</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4093749999999998</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="3"/>
+        <v>12.275402472527475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4093749999999998</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>11.174687500000003</v>
+      </c>
+      <c r="S52">
+        <v>19</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4265624999999997</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="3"/>
+        <v>12.119339972527476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>19</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4265624999999997</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>11.018281250000003</v>
+      </c>
+      <c r="S53">
+        <v>20</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4437499999999999</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="3"/>
+        <v>11.963277472527475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>20</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4437499999999999</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>10.861875000000001</v>
+      </c>
+      <c r="S54">
+        <v>21</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4609374999999998</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="3"/>
+        <v>11.807214972527474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>21</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4609374999999998</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>10.705468750000001</v>
+      </c>
+      <c r="S55">
+        <v>22</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4781249999999999</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="3"/>
+        <v>11.651152472527473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4781249999999999</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>10.549062500000002</v>
+      </c>
+      <c r="S56">
+        <v>23</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4953124999999998</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="3"/>
+        <v>11.495089972527476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>23</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4953124999999998</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="5"/>
+        <v>10.392656250000002</v>
+      </c>
+      <c r="S57">
+        <v>24</v>
+      </c>
+      <c r="T57" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5124999999999997</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="3"/>
+        <v>11.339027472527475</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5124999999999997</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>10.236250000000002</v>
+      </c>
+      <c r="S58">
+        <v>25</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5296874999999999</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="3"/>
+        <v>11.182964972527474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5296874999999999</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="5"/>
+        <v>10.079843750000002</v>
+      </c>
+      <c r="S59">
+        <v>26</v>
+      </c>
+      <c r="T59" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5468749999999998</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="3"/>
+        <v>11.026902472527475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>26</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5468749999999998</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="5"/>
+        <v>9.9234375000000021</v>
+      </c>
+      <c r="S60">
+        <v>27</v>
+      </c>
+      <c r="T60" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5640624999999999</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="3"/>
+        <v>10.870839972527474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>27</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5640624999999999</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="5"/>
+        <v>9.7670312500000005</v>
+      </c>
+      <c r="S61">
+        <v>28</v>
+      </c>
+      <c r="T61" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5812499999999998</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="3"/>
+        <v>10.714777472527475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5812499999999998</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="5"/>
+        <v>9.6106250000000024</v>
+      </c>
+      <c r="S62">
+        <v>29</v>
+      </c>
+      <c r="T62" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5984374999999997</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="3"/>
+        <v>10.558714972527474</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>29</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5984374999999997</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="5"/>
+        <v>9.4542187500000026</v>
+      </c>
+      <c r="S63">
+        <v>30</v>
+      </c>
+      <c r="T63" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6156249999999999</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="3"/>
+        <v>10.402652472527473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6156249999999999</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="5"/>
+        <v>9.2978125000000009</v>
+      </c>
+      <c r="S64">
+        <v>31</v>
+      </c>
+      <c r="T64" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6328124999999998</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="3"/>
+        <v>10.246589972527474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>31</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6328124999999998</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="5"/>
+        <v>9.1414062500000028</v>
+      </c>
+      <c r="S65">
+        <v>32</v>
+      </c>
+      <c r="T65" s="1">
+        <f t="shared" si="2"/>
+        <v>1.65</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="3"/>
+        <v>10.090527472527473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="4"/>
+        <v>1.65</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="5"/>
+        <v>8.9849999999999994</v>
+      </c>
+      <c r="S66">
+        <v>33</v>
+      </c>
+      <c r="T66" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6671874999999998</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="3"/>
+        <v>9.9344649725274738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6671874999999998</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>8.8285937500000031</v>
+      </c>
+      <c r="S67">
+        <v>34</v>
+      </c>
+      <c r="T67" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6843749999999997</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="3"/>
+        <v>9.7784024725274765</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>34</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6843749999999997</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>8.6721875000000033</v>
+      </c>
+      <c r="S68">
+        <v>35</v>
+      </c>
+      <c r="T68" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7015624999999999</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="3"/>
+        <v>9.6223399725274739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>35</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7015624999999999</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>8.5157812499999999</v>
+      </c>
+      <c r="S69">
+        <v>36</v>
+      </c>
+      <c r="T69" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7187499999999998</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="3"/>
+        <v>9.466277472527473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>36</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7187499999999998</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>8.3593750000000018</v>
+      </c>
+      <c r="S70">
+        <v>37</v>
+      </c>
+      <c r="T70" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7359374999999997</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="3"/>
+        <v>9.3102149725274757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>37</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7359374999999997</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>8.2029687500000037</v>
+      </c>
+      <c r="S71">
+        <v>38</v>
+      </c>
+      <c r="T71" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7531249999999998</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="3"/>
+        <v>9.1541524725274748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>38</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7531249999999998</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>8.0465625000000021</v>
+      </c>
+      <c r="S72">
+        <v>39</v>
+      </c>
+      <c r="T72" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7703124999999997</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="3"/>
+        <v>8.9980899725274757</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>39</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7703124999999997</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>7.8901562500000031</v>
+      </c>
+      <c r="S73">
+        <v>40</v>
+      </c>
+      <c r="T73" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7874999999999999</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="3"/>
+        <v>8.8420274725274748</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>40</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7874999999999999</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>7.7337500000000023</v>
+      </c>
+      <c r="S74">
+        <v>41</v>
+      </c>
+      <c r="T74" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8046874999999998</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="3"/>
+        <v>8.6859649725274757</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>41</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8046874999999998</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>7.5773437500000025</v>
+      </c>
+      <c r="S75">
+        <v>42</v>
+      </c>
+      <c r="T75" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8218749999999997</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="3"/>
+        <v>8.5299024725274748</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>42</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8218749999999997</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>7.4209375000000026</v>
+      </c>
+      <c r="S76">
+        <v>43</v>
+      </c>
+      <c r="T76" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8390624999999998</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="3"/>
+        <v>8.3738399725274739</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>43</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8390624999999998</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>7.2645312500000019</v>
+      </c>
+      <c r="S77">
+        <v>44</v>
+      </c>
+      <c r="T77" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8562499999999997</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="3"/>
+        <v>8.2177774725274766</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>44</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8562499999999997</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>7.1081250000000029</v>
+      </c>
+      <c r="S78">
+        <v>45</v>
+      </c>
+      <c r="T78" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8734374999999999</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="3"/>
+        <v>8.0617149725274739</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>45</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8734374999999999</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>6.9517187500000022</v>
+      </c>
+      <c r="S79">
+        <v>46</v>
+      </c>
+      <c r="T79" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8906249999999998</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="3"/>
+        <v>7.9056524725274748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>46</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8906249999999998</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>6.7953125000000023</v>
+      </c>
+      <c r="S80">
+        <v>47</v>
+      </c>
+      <c r="T80" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9078124999999997</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="3"/>
+        <v>7.7495899725274757</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>47</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9078124999999997</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>6.6389062500000033</v>
+      </c>
+      <c r="S81">
+        <v>48</v>
+      </c>
+      <c r="T81" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9249999999999998</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="3"/>
+        <v>7.593527472527474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>48</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9249999999999998</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>6.4825000000000017</v>
+      </c>
+      <c r="S82">
+        <v>49</v>
+      </c>
+      <c r="T82" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9421874999999997</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="3"/>
+        <v>7.4374649725274748</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>49</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9421874999999997</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>6.3260937500000027</v>
+      </c>
+      <c r="S83">
+        <v>50</v>
+      </c>
+      <c r="T83" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9593749999999999</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="3"/>
+        <v>7.281402472527474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>50</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9593749999999999</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>6.169687500000002</v>
+      </c>
+      <c r="S84">
+        <v>51</v>
+      </c>
+      <c r="T84" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9765624999999998</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="3"/>
+        <v>7.125339972527474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>51</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9765624999999998</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>6.0132812500000021</v>
+      </c>
+      <c r="S85">
+        <v>52</v>
+      </c>
+      <c r="T85" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9937499999999997</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="3"/>
+        <v>6.9692774725274758</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>52</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9937499999999997</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>5.8568750000000032</v>
+      </c>
+      <c r="S86">
+        <v>53</v>
+      </c>
+      <c r="T86" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0109374999999998</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="3"/>
+        <v>6.8132149725274749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>53</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0109374999999998</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>5.7004687500000024</v>
+      </c>
+      <c r="S87">
+        <v>54</v>
+      </c>
+      <c r="T87" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0281249999999997</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="3"/>
+        <v>6.6571524725274749</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>54</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0281249999999997</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>5.5440625000000026</v>
+      </c>
+      <c r="S88">
+        <v>55</v>
+      </c>
+      <c r="T88" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0453124999999996</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="3"/>
+        <v>6.5010899725274767</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>55</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0453124999999996</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>5.3876562500000045</v>
+      </c>
+      <c r="S89">
+        <v>56</v>
+      </c>
+      <c r="T89" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0624999999999996</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="3"/>
+        <v>6.3450274725274767</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>56</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0624999999999996</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>5.2312500000000046</v>
+      </c>
+      <c r="S90">
+        <v>57</v>
+      </c>
+      <c r="T90" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0796874999999999</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="3"/>
+        <v>6.1889649725274731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>57</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0796874999999999</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>5.0748437500000012</v>
+      </c>
+      <c r="S91">
+        <v>58</v>
+      </c>
+      <c r="T91" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0968749999999998</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="3"/>
+        <v>6.0329024725274749</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>58</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0968749999999998</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>4.9184375000000022</v>
+      </c>
+      <c r="S92">
+        <v>59</v>
+      </c>
+      <c r="T92" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1140624999999997</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="3"/>
+        <v>5.8768399725274749</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>59</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1140624999999997</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="5"/>
+        <v>4.7620312500000024</v>
+      </c>
+      <c r="S93">
+        <v>60</v>
+      </c>
+      <c r="T93" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1312499999999996</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="3"/>
+        <v>5.7207774725274758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>60</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1312499999999996</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="5"/>
+        <v>4.6056250000000034</v>
+      </c>
+      <c r="S94">
+        <v>61</v>
+      </c>
+      <c r="T94" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1484374999999996</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="3"/>
+        <v>5.5647149725274767</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>61</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1484374999999996</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="5"/>
+        <v>4.4492187500000036</v>
+      </c>
+      <c r="S95">
+        <v>62</v>
+      </c>
+      <c r="T95" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1656249999999999</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="3"/>
+        <v>5.4086524725274732</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>62</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1656249999999999</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="5"/>
+        <v>4.2928125000000001</v>
+      </c>
+      <c r="S96">
+        <v>63</v>
+      </c>
+      <c r="T96" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1828124999999998</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="3"/>
+        <v>5.2525899725274741</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>63</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1828124999999998</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="5"/>
+        <v>4.1364062500000021</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>